--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2614.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2614.xlsx
@@ -354,7 +354,7 @@
         <v>1.583064128081865</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.787266940801772</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2614.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2614.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7878069954373939</v>
+        <v>1.305838942527771</v>
       </c>
       <c r="B1">
-        <v>1.583064128081865</v>
+        <v>2.183547496795654</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.857301712036133</v>
       </c>
       <c r="D1">
-        <v>1.787266940801772</v>
+        <v>3.165481567382812</v>
       </c>
       <c r="E1">
-        <v>0.9183931934973043</v>
+        <v>1.331758975982666</v>
       </c>
     </row>
   </sheetData>
